--- a/docs/materials/original_materials/edits/Baird-etal-QJE-2016_fiscal-impact-calculations-UPDATED-KLPS-3_2018-01-04_FH edits.xlsx
+++ b/docs/materials/original_materials/edits/Baird-etal-QJE-2016_fiscal-impact-calculations-UPDATED-KLPS-3_2018-01-04_FH edits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fhoces/Documents/Dropbox/BITSS/OPA-case-study-2-deworming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fhoces/Desktop/sandbox/opa-deworming/docs/materials/original_materials/edits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B61DB4-3238-4542-84C6-106C7EA5306D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC28645-746D-4F4B-9E11-5B92D381ECBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17000" windowHeight="21140" tabRatio="925" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
     <definedName name="solver_ver" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="11" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -717,6 +717,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -731,6 +732,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -745,6 +747,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -783,6 +786,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -819,6 +823,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -837,6 +842,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1218,6 +1224,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Full</t>
     </r>
@@ -1236,6 +1243,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2056,6 +2064,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2068,6 +2077,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2075,27 +2085,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2104,6 +2119,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2111,6 +2127,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2118,12 +2135,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2132,6 +2151,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2140,6 +2160,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4982,7 +5003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5392,7 +5413,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6179,8 +6200,8 @@
   </sheetPr>
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6218,7 +6239,7 @@
       </c>
       <c r="G4">
         <f>'Calcs-Table 5'!C46+'Calcs-Table 5'!C47+'Calcs-Table 5'!C50+'Calcs-Table 5'!C51</f>
-        <v>26.817390948981998</v>
+        <v>30.750113815373425</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7893,7 +7914,7 @@
       </c>
       <c r="C156">
         <f t="shared" ref="C156:J156" si="7">(C102*$B$151*C$150*$B$144)/((1+$B$8)^C$153)</f>
-        <v>-5.2377292030021945</v>
+        <v>-5.2377292030021936</v>
       </c>
       <c r="D156">
         <f t="shared" si="7"/>
@@ -8051,7 +8072,7 @@
   </sheetPr>
   <dimension ref="A3:BF80"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A11" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -9568,8 +9589,8 @@
   </sheetPr>
   <dimension ref="A1:BB467"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showRuler="0" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11845,11 +11866,12 @@
         <v>65</v>
       </c>
       <c r="B50" s="19">
-        <v>0.14309379520123611</v>
+        <f>0.1185-0.02</f>
+        <v>9.849999999999999E-2</v>
       </c>
       <c r="C50">
         <f>SUM(D50:BB50)</f>
-        <v>-4.5424170641604036</v>
+        <v>-0.60969419776897837</v>
       </c>
       <c r="D50">
         <f>-'Model Params&amp;Exp Profiles'!$B$8*'Model Params&amp;Exp Profiles'!$B$14/(1+$B50)^D$44</f>
@@ -11857,203 +11879,203 @@
       </c>
       <c r="E50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!B$95)/(1+$B50)^E$44</f>
-        <v>0.18027803708357559</v>
+        <v>0.18759645480318035</v>
       </c>
       <c r="F50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!C$95)/(1+$B50)^F$44</f>
-        <v>-0.62247941461010736</v>
+        <v>-0.67404455710147648</v>
       </c>
       <c r="G50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!D$95)/(1+$B50)^G$44</f>
-        <v>-2.0229257162065455</v>
+        <v>-2.2794252442474181</v>
       </c>
       <c r="H50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!E$95)/(1+$B50)^H$44</f>
-        <v>-1.6423469362765439</v>
+        <v>-1.9257155137644839</v>
       </c>
       <c r="I50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!F$95)/(1+$B50)^I$44</f>
-        <v>-1.6346416795664733</v>
+        <v>-1.9944887859025937</v>
       </c>
       <c r="J50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!G$95)/(1+$B50)^J$44</f>
-        <v>-1.2263214259307571</v>
+        <v>-1.5570234480930298</v>
       </c>
       <c r="K50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!H$95)/(1+$B50)^K$44</f>
-        <v>-1.2797110159987888</v>
+        <v>-1.69077006973789</v>
       </c>
       <c r="L50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!I$95)/(1+$B50)^L$44</f>
-        <v>-0.25937377555101748</v>
+        <v>-0.35659932173055497</v>
       </c>
       <c r="M50">
         <f>(-'Assumps&amp;Panel A Calcs'!$B$88*'Assumps&amp;Panel A Calcs'!J$95)/(1+$B50)^M$44</f>
-        <v>-0.2930764869177811</v>
+        <v>-0.41929263321371618</v>
       </c>
       <c r="N50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*N$21*$B$21/(1+$B50)^N$44</f>
-        <v>0.58480787063385997</v>
+        <v>0.87062527333792827</v>
       </c>
       <c r="O50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*O$21*$B$21/(1+$B50)^O$44</f>
-        <v>0.51937728361387647</v>
+        <v>0.8046051684047929</v>
       </c>
       <c r="P50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*P$21*$B$21/(1+$B50)^P$44</f>
-        <v>0.46126732603949072</v>
+        <v>0.74359141280341012</v>
       </c>
       <c r="Q50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*Q$21*$B$21/(1+$B50)^Q$44</f>
-        <v>0.40965893731655934</v>
+        <v>0.68720437166865922</v>
       </c>
       <c r="R50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*R$21*$B$21/(1+$B50)^R$44</f>
-        <v>0.36382469654693245</v>
+        <v>0.63509319810470899</v>
       </c>
       <c r="S50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*S$21*$B$21/(1+$B50)^S$44</f>
-        <v>0.32311856952160495</v>
+        <v>0.58693365017378296</v>
       </c>
       <c r="T50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*T$21*$B$21/(1+$B50)^T$44</f>
-        <v>0.28696680286028964</v>
+        <v>0.54242607342414617</v>
       </c>
       <c r="U50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*U$21*$B$21/(1+$B50)^U$44</f>
-        <v>0.25485983695019454</v>
+        <v>0.50129353640436347</v>
       </c>
       <c r="V50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*V$21*$B$21/(1+$B50)^V$44</f>
-        <v>0.22634512369677304</v>
+        <v>0.46328010756277632</v>
       </c>
       <c r="W50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*W$21*$B$21/(1+$B50)^W$44</f>
-        <v>0.20102074785255167</v>
+        <v>0.42814926281086085</v>
       </c>
       <c r="X50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*X$21*$B$21/(1+$B50)^X$44</f>
-        <v>0.17852976201658399</v>
+        <v>0.39568241384213565</v>
       </c>
       <c r="Y50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*Y$21*$B$21/(1+$B50)^Y$44</f>
-        <v>0.15855515545627563</v>
+        <v>0.36567754804964603</v>
       </c>
       <c r="Z50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*Z$21*$B$21/(1+$B50)^Z$44</f>
-        <v>0.14081538583705974</v>
+        <v>0.33794797157942708</v>
       </c>
       <c r="AA50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AA$21*$B$21/(1+$B50)^AA$44</f>
-        <v>0.12506041087959577</v>
+        <v>0.31232114769907554</v>
       </c>
       <c r="AB50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AB$21*$B$21/(1+$B50)^AB$44</f>
-        <v>0.11106816401064863</v>
+        <v>0.28863762325361997</v>
       </c>
       <c r="AC50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AC$21*$B$21/(1+$B50)^AC$44</f>
-        <v>9.8641424331902941E-2</v>
+        <v>0.26675003652897139</v>
       </c>
       <c r="AD50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AD$21*$B$21/(1+$B50)^AD$44</f>
-        <v>8.760503678888272E-2</v>
+        <v>0.24652220034976033</v>
       </c>
       <c r="AE50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AE$21*$B$21/(1+$B50)^AE$44</f>
-        <v>7.7803443358221466E-2</v>
+        <v>0.22782825470648768</v>
       </c>
       <c r="AF50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AF$21*$B$21/(1+$B50)^AF$44</f>
-        <v>6.9098490455336004E-2</v>
+        <v>0.21055188363953242</v>
       </c>
       <c r="AG50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AG$21*$B$21/(1+$B50)^AG$44</f>
-        <v>6.1367481657887718E-2</v>
+        <v>0.19458559150737673</v>
       </c>
       <c r="AH50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AH$21*$B$21/(1+$B50)^AH$44</f>
-        <v>5.4501448298142463E-2</v>
+        <v>0.17983003413590246</v>
       </c>
       <c r="AI50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AI$21*$B$21/(1+$B50)^AI$44</f>
-        <v>4.8403613548207297E-2</v>
+        <v>0.16619340068708988</v>
       </c>
       <c r="AJ50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AJ$21*$B$21/(1+$B50)^AJ$44</f>
-        <v>4.2988028349405322E-2</v>
+        <v>0.15359084240103199</v>
       </c>
       <c r="AK50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AK$21*$B$21/(1+$B50)^AK$44</f>
-        <v>3.8178359959196016E-2</v>
+        <v>0.14194394465682994</v>
       </c>
       <c r="AL50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AL$21*$B$21/(1+$B50)^AL$44</f>
-        <v>3.3906816040194257E-2</v>
+        <v>0.13118023906746817</v>
       </c>
       <c r="AM50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AM$21*$B$21/(1+$B50)^AM$44</f>
-        <v>3.0113189126309056E-2</v>
+        <v>0.12123275257286635</v>
       </c>
       <c r="AN50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AN$21*$B$21/(1+$B50)^AN$44</f>
-        <v>2.6744007997740113E-2</v>
+        <v>0.1120395907255111</v>
       </c>
       <c r="AO50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AO$21*$B$21/(1+$B50)^AO$44</f>
-        <v>2.3751784003451838E-2</v>
+        <v>0.10354355257582058</v>
       </c>
       <c r="AP50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AP$21*$B$21/(1+$B50)^AP$44</f>
-        <v>2.1094341708030494E-2</v>
+        <v>9.5691774761013246E-2</v>
       </c>
       <c r="AQ50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AQ$21*$B$21/(1+$B50)^AQ$44</f>
-        <v>1.8734224428383465E-2</v>
+        <v>8.8435402582959177E-2</v>
       </c>
       <c r="AR50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AR$21*$B$21/(1+$B50)^AR$44</f>
-        <v>1.6638166281312639E-2</v>
+        <v>8.1729286028420736E-2</v>
       </c>
       <c r="AS50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AS$21*$B$21/(1+$B50)^AS$44</f>
-        <v>1.4776623300465912E-2</v>
+        <v>7.5531698840284711E-2</v>
       </c>
       <c r="AT50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AT$21*$B$21/(1+$B50)^AT$44</f>
-        <v>1.3123357013754153E-2</v>
+        <v>6.980407889181342E-2</v>
       </c>
       <c r="AU50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AU$21*$B$21/(1+$B50)^AU$44</f>
-        <v>1.1655064611752001E-2</v>
+        <v>6.451078824849249E-2</v>
       </c>
       <c r="AV50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AV$21*$B$21/(1+$B50)^AV$44</f>
-        <v>1.0351050494301413E-2</v>
+        <v>5.961889142455129E-2</v>
       </c>
       <c r="AW50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AW$21*$B$21/(1+$B50)^AW$44</f>
-        <v>9.1929345657631237E-3</v>
+        <v>5.5097950454441942E-2</v>
       </c>
       <c r="AX50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AX$21*$B$21/(1+$B50)^AX$44</f>
-        <v>8.1643931673338766E-3</v>
+        <v>5.0919835504187036E-2</v>
       </c>
       <c r="AY50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AY$21*$B$21/(1+$B50)^AY$44</f>
-        <v>7.2509289948671325E-3</v>
+        <v>4.7058549844197259E-2</v>
       </c>
       <c r="AZ50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*AZ$21*$B$21/(1+$B50)^AZ$44</f>
-        <v>6.4396667591859521E-3</v>
+        <v>4.3490068094518948E-2</v>
       </c>
       <c r="BA50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*BA$21*$B$21/(1+$B50)^BA$44</f>
-        <v>5.7191717087176352E-3</v>
+        <v>4.0192186736054299E-2</v>
       </c>
       <c r="BB50">
         <f>'Assumps&amp;Panel A Calcs'!$B$12*BB$21*$B$21/(1+$B50)^BB$44</f>
-        <v>5.0792884565242589E-3</v>
+        <v>3.7144385957617043E-2</v>
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
@@ -25483,7 +25505,7 @@
       <c r="B40" s="15"/>
       <c r="C40" s="21">
         <f>'Calcs-Table 5'!B50</f>
-        <v>0.14309379520123611</v>
+        <v>9.849999999999999E-2</v>
       </c>
       <c r="D40" s="21">
         <f>'Calcs-Table 5'!B51</f>
